--- a/pay_result/급여명세서_worker_20251201_20251217.xlsx
+++ b/pay_result/급여명세서_worker_20251201_20251217.xlsx
@@ -972,10 +972,10 @@
     <row r="20" ht="70" customHeight="1">
       <c r="A20" s="16" t="inlineStr">
         <is>
-          <t>총 39.3h 근무 (실 35.8h)
-35.8h x 10,030
-8h/40h 초과분(1.5배)
-주 15시간 초과분</t>
+          <t>• 근태: 총 39.3h - 휴게 3.5h = 실 근무 35.8h
+• 기본급: 35.8시간 × 10,030원 = 359,491원
+• 가산(0.5배): 연장 2.0h = 10,030원
+• 주휴수당: 13.4시간분 (주 15시간↑ 개근) = 134,290원</t>
         </is>
       </c>
       <c r="B20" s="21" t="n"/>
@@ -1011,11 +1011,9 @@
     <row r="24" ht="70" customHeight="1">
       <c r="A24" s="16" t="inlineStr">
         <is>
-          <t>비고:
-본 근로계약은 주 15시간 미만을 원칙으로 하나,
-본 주는 성수기 물량 대응으로 일시적으로 주 15시간을 초과하여
-근로기준법 제55조에 따라 해당 주에 한해 주휴수당을 지급함.
-본 초과 근무는 상시적 근로시간 변경에 해당하지 않음.</t>
+          <t>※ 주휴수당 지급 안내:
+본 주는 일시적 업무 증가로 주 15시간 이상 근무하여
+근로기준법에 의거 주휴수당을 지급하였습니다.</t>
         </is>
       </c>
       <c r="B24" s="21" t="n"/>
@@ -1085,7 +1083,7 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B4:C4"/>
   </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="0"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="1" fitToWidth="1"/>
 </worksheet>

--- a/pay_result/급여명세서_worker_20251201_20251217.xlsx
+++ b/pay_result/급여명세서_worker_20251201_20251217.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -62,6 +62,11 @@
     </font>
     <font>
       <name val="맑은 고딕"/>
+      <color rgb="00616161"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
       <b val="1"/>
       <sz val="16"/>
     </font>
@@ -214,12 +219,6 @@
       <diagonal/>
     </border>
     <border>
-      <right/>
-      <bottom style="medium">
-        <color rgb="00424242"/>
-      </bottom>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="00BDBDBD"/>
       </left>
@@ -268,11 +267,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <right/>
+      <bottom style="medium">
+        <color rgb="00424242"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -311,26 +316,29 @@
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -722,7 +730,7 @@
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Hobby Store</t>
+          <t>Hobby Brown</t>
         </is>
       </c>
     </row>
@@ -808,7 +816,7 @@
       </c>
       <c r="B8" s="5" t="n"/>
       <c r="C8" s="8" t="n">
-        <v>359491</v>
+        <v>407530</v>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
@@ -848,7 +856,7 @@
       </c>
       <c r="B10" s="5" t="n"/>
       <c r="C10" s="8" t="n">
-        <v>10030</v>
+        <v>0</v>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
@@ -877,7 +885,7 @@
       </c>
       <c r="E11" s="5" t="n"/>
       <c r="F11" s="8" t="n">
-        <v>4530</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
@@ -929,7 +937,7 @@
       </c>
       <c r="B15" s="7" t="n"/>
       <c r="C15" s="10" t="n">
-        <v>503811</v>
+        <v>541820</v>
       </c>
       <c r="D15" s="9" t="inlineStr">
         <is>
@@ -938,7 +946,7 @@
       </c>
       <c r="E15" s="7" t="n"/>
       <c r="F15" s="10" t="n">
-        <v>4530</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="16"/>
@@ -950,7 +958,7 @@
       </c>
       <c r="B17" s="7" t="n"/>
       <c r="C17" s="12" t="n">
-        <v>499281</v>
+        <v>536950</v>
       </c>
       <c r="D17" s="13" t="n"/>
       <c r="E17" s="13" t="n"/>
@@ -958,9 +966,9 @@
     </row>
     <row r="18"/>
     <row r="19" ht="30" customHeight="1">
-      <c r="A19" s="20" t="inlineStr">
-        <is>
-          <t>산출 근거</t>
+      <c r="A19" s="21" t="inlineStr">
+        <is>
+          <t>상세 산출 내역 및 법적 기준</t>
         </is>
       </c>
       <c r="B19" s="15" t="n"/>
@@ -969,74 +977,84 @@
       <c r="E19" s="15" t="n"/>
       <c r="F19" s="15" t="n"/>
     </row>
-    <row r="20" ht="70" customHeight="1">
+    <row r="20" ht="140" customHeight="1">
       <c r="A20" s="16" t="inlineStr">
         <is>
-          <t>• 근태: 총 39.3h - 휴게 3.5h = 실 근무 35.8h
-• 기본급: 35.8시간 × 10,030원 = 359,491원
-• 가산(0.5배): 연장 2.0h = 10,030원
-• 주휴수당: 13.4시간분 (주 15시간↑ 개근) = 134,290원</t>
-        </is>
-      </c>
-      <c r="B20" s="21" t="n"/>
-      <c r="C20" s="21" t="n"/>
-      <c r="D20" s="21" t="n"/>
-      <c r="E20" s="21" t="n"/>
-      <c r="F20" s="22" t="n"/>
+          <t>■ 근로시간 상세
+   • 총 체류시간(44.6h) - 휴게시간(4.0h) = 실 근로시간(40.6h)
+■ 법적 기준 안내
+   • 본 사업장은 상시근로자 5인 미만으로, 근로기준법 제56조에 의거하여
+     연장·야간·휴일 근로에 대한 가산수당(1.5배)이 적용되지 않으며,
+     실제 근로시간에 대한 통상임금(1.0배)이 지급됩니다.
+■ 특이 근무 인정 (1.0배 지급)
+   • 연장근로 2.0시간
+■ 주휴수당 발생 내역
+   • 주 15시간 이상 개근한 2개 주에 대해 주휴수당 발생
+   • (지급액: 134,290원)</t>
+        </is>
+      </c>
+      <c r="B20" s="22" t="n"/>
+      <c r="C20" s="22" t="n"/>
+      <c r="D20" s="22" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="23" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="23" t="n"/>
-      <c r="F21" s="24" t="n"/>
+      <c r="A21" s="24" t="n"/>
+      <c r="F21" s="25" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="25" t="n"/>
-      <c r="B22" s="26" t="n"/>
-      <c r="C22" s="26" t="n"/>
-      <c r="D22" s="26" t="n"/>
-      <c r="E22" s="26" t="n"/>
-      <c r="F22" s="27" t="n"/>
-    </row>
-    <row r="23" ht="30" customHeight="1">
-      <c r="A23" s="20" t="inlineStr">
+      <c r="A22" s="24" t="n"/>
+      <c r="F22" s="25" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="26" t="n"/>
+      <c r="B23" s="27" t="n"/>
+      <c r="C23" s="27" t="n"/>
+      <c r="D23" s="27" t="n"/>
+      <c r="E23" s="27" t="n"/>
+      <c r="F23" s="28" t="n"/>
+    </row>
+    <row r="24" ht="30" customHeight="1">
+      <c r="A24" s="21" t="inlineStr">
         <is>
           <t>비고</t>
         </is>
       </c>
-      <c r="B23" s="15" t="n"/>
-      <c r="C23" s="15" t="n"/>
-      <c r="D23" s="15" t="n"/>
-      <c r="E23" s="15" t="n"/>
-      <c r="F23" s="15" t="n"/>
-    </row>
-    <row r="24" ht="70" customHeight="1">
-      <c r="A24" s="16" t="inlineStr">
+      <c r="B24" s="15" t="n"/>
+      <c r="C24" s="15" t="n"/>
+      <c r="D24" s="15" t="n"/>
+      <c r="E24" s="15" t="n"/>
+      <c r="F24" s="15" t="n"/>
+    </row>
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" s="18" t="inlineStr">
         <is>
           <t>※ 주휴수당 지급 안내:
 본 주는 일시적 업무 증가로 주 15시간 이상 근무하여
 근로기준법에 의거 주휴수당을 지급하였습니다.</t>
         </is>
       </c>
-      <c r="B24" s="21" t="n"/>
-      <c r="C24" s="21" t="n"/>
-      <c r="D24" s="21" t="n"/>
-      <c r="E24" s="21" t="n"/>
-      <c r="F24" s="22" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="23" t="n"/>
-      <c r="F25" s="24" t="n"/>
+      <c r="B25" s="22" t="n"/>
+      <c r="C25" s="22" t="n"/>
+      <c r="D25" s="22" t="n"/>
+      <c r="E25" s="22" t="n"/>
+      <c r="F25" s="23" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="25" t="n"/>
-      <c r="B26" s="26" t="n"/>
-      <c r="C26" s="26" t="n"/>
-      <c r="D26" s="26" t="n"/>
-      <c r="E26" s="26" t="n"/>
-      <c r="F26" s="27" t="n"/>
-    </row>
-    <row r="27"/>
+      <c r="A26" s="24" t="n"/>
+      <c r="F26" s="25" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="26" t="n"/>
+      <c r="B27" s="27" t="n"/>
+      <c r="C27" s="27" t="n"/>
+      <c r="D27" s="27" t="n"/>
+      <c r="E27" s="27" t="n"/>
+      <c r="F27" s="28" t="n"/>
+    </row>
     <row r="28" ht="30" customHeight="1">
-      <c r="A28" s="18" t="inlineStr">
+      <c r="A28" s="19" t="inlineStr">
         <is>
           <t>위와 같이 급여를 지급합니다.</t>
         </is>
@@ -1044,7 +1062,7 @@
     </row>
     <row r="29"/>
     <row r="30" ht="50" customHeight="1">
-      <c r="A30" s="19" t="inlineStr">
+      <c r="A30" s="20" t="inlineStr">
         <is>
           <t>대 표 자    이  수  진   (인)</t>
         </is>
@@ -1052,18 +1070,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A20:F23"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A25:F27"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A20:F22"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="D7:E7"/>
@@ -1074,7 +1092,7 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A24:F26"/>
+    <mergeCell ref="A24:F24"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A1:F1"/>
